--- a/src/main/resources/excels/check_product_detail_sf/Create product.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/Create product.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\GoSELL-Automation\src\main\resources\excels\check_product_detail_sf\"/>
     </mc:Choice>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="85">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -455,11 +455,18 @@
   <si>
     <t>Post IMEI - Variation and check product detail page on storefront</t>
   </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -811,11 +818,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="58.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="54.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="58.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="47.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="54.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -854,6 +861,9 @@
       <c r="E2" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.25">
@@ -872,6 +882,9 @@
       <c r="E3" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="171" x14ac:dyDescent="0.25">
@@ -890,6 +903,9 @@
       <c r="E4" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="F4" t="s">
+        <v>84</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.25">
@@ -908,6 +924,9 @@
       <c r="E5" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="193.8" x14ac:dyDescent="0.25">
@@ -926,6 +945,9 @@
       <c r="E6" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="159.6" x14ac:dyDescent="0.25">
@@ -944,6 +966,9 @@
       <c r="E7" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="182.4" x14ac:dyDescent="0.25">
@@ -962,6 +987,9 @@
       <c r="E8" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="125.4" x14ac:dyDescent="0.25">
@@ -980,6 +1008,9 @@
       <c r="E9" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="182.4" x14ac:dyDescent="0.25">
@@ -998,6 +1029,9 @@
       <c r="E10" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.25">
@@ -1016,6 +1050,9 @@
       <c r="E11" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="182.4" x14ac:dyDescent="0.25">
@@ -1034,6 +1071,9 @@
       <c r="E12" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="F12" t="s">
+        <v>84</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="114" x14ac:dyDescent="0.25">
@@ -1052,6 +1092,9 @@
       <c r="E13" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="193.8" x14ac:dyDescent="0.25">
@@ -1070,6 +1113,9 @@
       <c r="E14" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="F14" t="s">
+        <v>83</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="159.6" x14ac:dyDescent="0.25">
@@ -1088,6 +1134,9 @@
       <c r="E15" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="193.8" x14ac:dyDescent="0.25">
@@ -1106,6 +1155,9 @@
       <c r="E16" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="F16" t="s">
+        <v>83</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="125.4" x14ac:dyDescent="0.25">
@@ -1124,6 +1176,9 @@
       <c r="E17" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="182.4" x14ac:dyDescent="0.25">
@@ -1142,6 +1197,9 @@
       <c r="E18" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.25">
@@ -1160,6 +1218,9 @@
       <c r="E19" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="F19" t="s">
+        <v>84</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.25">
@@ -1178,6 +1239,9 @@
       <c r="E20" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="F20" t="s">
+        <v>83</v>
+      </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="182.4" x14ac:dyDescent="0.25">
@@ -1196,6 +1260,9 @@
       <c r="E21" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.25">
@@ -1214,6 +1281,9 @@
       <c r="E22" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="F22" t="s">
+        <v>84</v>
+      </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="114" x14ac:dyDescent="0.25">
@@ -1232,6 +1302,9 @@
       <c r="E23" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="F23" t="s">
+        <v>83</v>
+      </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="193.8" x14ac:dyDescent="0.25">
@@ -1250,6 +1323,9 @@
       <c r="E24" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="F24" t="s">
+        <v>83</v>
+      </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="159.6" x14ac:dyDescent="0.25">
@@ -1268,6 +1344,9 @@
       <c r="E25" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="F25" t="s">
+        <v>83</v>
+      </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="159.6" x14ac:dyDescent="0.25">
@@ -1286,6 +1365,9 @@
       <c r="E26" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="193.8" x14ac:dyDescent="0.25">
@@ -1304,6 +1386,9 @@
       <c r="E27" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="F27" t="s">
+        <v>83</v>
+      </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="159.6" x14ac:dyDescent="0.25">
@@ -1322,6 +1407,9 @@
       <c r="E28" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="F28" t="s">
+        <v>83</v>
+      </c>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="125.4" x14ac:dyDescent="0.25">
@@ -1340,6 +1428,9 @@
       <c r="E29" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="F29" t="s">
+        <v>83</v>
+      </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="182.4" x14ac:dyDescent="0.25">
@@ -1358,6 +1449,9 @@
       <c r="E30" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="F30" t="s">
+        <v>83</v>
+      </c>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.25">
@@ -1376,6 +1470,9 @@
       <c r="E31" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="F31" t="s">
+        <v>83</v>
+      </c>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.25">
@@ -1394,6 +1491,9 @@
       <c r="E32" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="F32" t="s">
+        <v>83</v>
+      </c>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" ht="182.4" x14ac:dyDescent="0.25">
@@ -1412,6 +1512,9 @@
       <c r="E33" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="F33" t="s">
+        <v>84</v>
+      </c>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.25">
@@ -1430,6 +1533,9 @@
       <c r="E34" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="F34" t="s">
+        <v>83</v>
+      </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" ht="114" x14ac:dyDescent="0.25">
@@ -1448,6 +1554,9 @@
       <c r="E35" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="F35" t="s">
+        <v>83</v>
+      </c>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" ht="193.8" x14ac:dyDescent="0.25">
@@ -1466,6 +1575,9 @@
       <c r="E36" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="F36" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="159.6" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
@@ -1483,6 +1595,9 @@
       <c r="E37" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="F37" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="159.6" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
@@ -1500,6 +1615,9 @@
       <c r="E38" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="F38" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="193.8" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -1517,6 +1635,9 @@
       <c r="E39" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="F39" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="159.6" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
@@ -1534,6 +1655,9 @@
       <c r="E40" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="F40" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="125.4" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
@@ -1550,6 +1674,9 @@
       </c>
       <c r="E41" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="F41" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">

--- a/src/main/resources/excels/check_product_detail_sf/Create product.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/Create product.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="85">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -883,7 +883,7 @@
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -904,7 +904,7 @@
         <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -925,7 +925,7 @@
         <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -1009,7 +1009,7 @@
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -1030,7 +1030,7 @@
         <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -1114,7 +1114,7 @@
         <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -1135,7 +1135,7 @@
         <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -1156,7 +1156,7 @@
         <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -1177,7 +1177,7 @@
         <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -1198,7 +1198,7 @@
         <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -1219,7 +1219,7 @@
         <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -1240,7 +1240,7 @@
         <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -1282,7 +1282,7 @@
         <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G22" s="2"/>
     </row>
@@ -1345,7 +1345,7 @@
         <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G25" s="2"/>
     </row>
@@ -1366,7 +1366,7 @@
         <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G26" s="2"/>
     </row>
@@ -1387,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G27" s="2"/>
     </row>
@@ -1429,7 +1429,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G29" s="2"/>
     </row>
@@ -1513,7 +1513,7 @@
         <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G33" s="2"/>
     </row>
@@ -1576,7 +1576,7 @@
         <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="159.6" x14ac:dyDescent="0.25">

--- a/src/main/resources/excels/check_product_detail_sf/Create product.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/Create product.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\GoSELL-Automation\src\main\resources\excels\check_product_detail_sf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307D1B91-0F66-4505-BA94-89B88AA03014}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF132B7-8B55-4738-97B7-5435C29C5D93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$21</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="60">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>Expected</t>
-  </si>
-  <si>
-    <t>Result</t>
   </si>
   <si>
     <t>Pre-condition</t>
@@ -146,305 +143,7 @@
     <t>Post Normal - without variation and check product detail page on storefront</t>
   </si>
   <si>
-    <t>Dashboard:
-1. Access to dashboard
-2. Check UI (Language: VIE) and create product
-3. Check UI (Language: VIE) and configure conversion unit
-4. Check UI (Language: VIE) and configure wholesale product
-Storefront:
-1.Access to product detail page by URL
-2. Check UI (All language)
-3. Check all product information:
-    - Product name
-    - Description
-    - Variation (if any)
-    - Listing, Selling price
-    - Branch name
-    - Buy now, Add to cart...</t>
-  </si>
-  <si>
     <t>1. All information should be shown correctly</t>
-  </si>
-  <si>
-    <t>Dashboard:
-1. Access to dashboard
-2. Check UI (Language: VIE) and create product
-3. Check UI (Language: VIE) and configure conversion unit
-4. Check UI (Language: VIE) and configure wholesale product
-Storefront:
-1. Access to product detail page by URL
-2. Check UI (All language)
-3. Check all product information:
-    - Product name
-    - Description
-    - Check sold out mark ...</t>
-  </si>
-  <si>
-    <t>Dashboard:
-1. Access to dashboard
-2. Check UI (Language: VIE) and create product
-3. Check UI (Language: VIE) and configure conversion unit
-4. Check UI (Language: VIE) and configure wholesale product
-Storefront:1. Access to product detail page by URL
-2. Check UI (All language)
-3. Check all product information:
-    - Product name
-    - Description
-    - Variation (if any)
-    - Listing, Selling price
-    - Branch name
-    - Buy now, Add to cart…</t>
-  </si>
-  <si>
-    <t>Dashboard:
-1. Access to dashboard
-2. Check UI (Language: VIE) and create product
-3. Check UI (Language: VIE) and configure conversion unit
-4. Check UI (Language: VIE) and configure wholesale product
-Storefront:
-1. Access to product detail page by URL
-2. Check UI (All language)
-3. Check 404 Page is shown</t>
-  </si>
-  <si>
-    <t>Dashboard:
-1. Access to dashboard
-2. Check UI (Language: VIE) and create product
-3. Check UI (Language: VIE) and configure conversion unit
-4. Check UI (Language: VIE) and configure wholesale product
-Storefront:
-1. Access to product detail page by URL
-2. Check UI (All language)
-3. Check all product information:
-    - Product name
-    - Description
-    - Variation (if any)
-    - Listing, Selling price
-    - Branch name
-    - Buy now, Add to cart...</t>
-  </si>
-  <si>
-    <t>Dashboard:
-1. Access to dashboard
-2. Check UI (Language: VIE) and create product
-3. Check UI (Language: VIE) and configure conversion unit
-4. Check UI (Language: VIE) and configure wholesale product
-Storefront:
-1. Access to product detail page by URL
-2. Check UI (All language)
-3. Check all product information:
-    - Product name
-    - Description
-    - Sold out mark (if variation stock quantity = 0) ...</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_VIE_G1_01</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_VIE_G1_02</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_VIE_G1_03</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_VIE_G1_04</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_VIE_G2_01</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_VIE_G2_02</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_VIE_G2_03</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_VIE_G2_04</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_VIE_G3_01</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_VIE_G3_02</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_VIE_G3_03</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_VIE_G3_04</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_VIE_G3_05</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_VIE_G3_06</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_VIE_G4_01</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_VIE_G4_02</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_VIE_G4_03</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_VIE_G4_04</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_VIE_G4_05</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_VIE_G4_06</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_ENG_G1_01</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_ENG_G1_02</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_ENG_G1_03</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_ENG_G1_04</t>
-  </si>
-  <si>
-    <t>Dashboard:
-1. Access to dashboard
-2. Check UI (Language: ENG) and create product
-3. Check UI (Language: ENG) and configure conversion unit
-4. Check UI (Language: ENG) and configure wholesale product
-Storefront:
-1.Access to product detail page by URL
-2. Check UI (All language)
-3. Check all product information:
-    - Product name
-    - Description
-    - Variation (if any)
-    - Listing, Selling price
-    - Branch name
-    - Buy now, Add to cart...</t>
-  </si>
-  <si>
-    <t>Dashboard:
-1. Access to dashboard
-2. Check UI (Language: ENG) and create product
-3. Check UI (Language: ENG) and configure conversion unit
-4. Check UI (Language: ENG) and configure wholesale product
-Storefront:
-1. Access to product detail page by URL
-2. Check UI (All language)
-3. Check all product information:
-    - Product name
-    - Description
-    - Check sold out mark ...</t>
-  </si>
-  <si>
-    <t>Dashboard:
-1. Access to dashboard
-2. Check UI (Language: ENG) and create product
-3. Check UI (Language: ENG) and configure conversion unit
-4. Check UI (Language: ENG) and configure wholesale product
-Storefront:1. Access to product detail page by URL
-2. Check UI (All language)
-3. Check all product information:
-    - Product name
-    - Description
-    - Variation (if any)
-    - Listing, Selling price
-    - Branch name
-    - Buy now, Add to cart…</t>
-  </si>
-  <si>
-    <t>Dashboard:
-1. Access to dashboard
-2. Check UI (Language: ENG) and create product
-3. Check UI (Language: ENG) and configure conversion unit
-4. Check UI (Language: ENG) and configure wholesale product
-Storefront:
-1. Access to product detail page by URL
-2. Check UI (All language)
-3. Check 404 Page is shown</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_ENG_G2_01</t>
-  </si>
-  <si>
-    <t>Dashboard:
-1. Access to dashboard
-2. Check UI (Language: ENG) and create product
-3. Check UI (Language: ENG) and configure conversion unit
-4. Check UI (Language: ENG) and configure wholesale product
-Storefront:
-1. Access to product detail page by URL
-2. Check UI (All language)
-3. Check all product information:
-    - Product name
-    - Description
-    - Variation (if any)
-    - Listing, Selling price
-    - Branch name
-    - Buy now, Add to cart...</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_ENG_G2_02</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_ENG_G2_03</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_ENG_G2_04</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_ENG_G3_01</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_ENG_G3_02</t>
-  </si>
-  <si>
-    <t>Dashboard:
-1. Access to dashboard
-2. Check UI (Language: ENG) and create product
-3. Check UI (Language: ENG) and configure conversion unit
-4. Check UI (Language: ENG) and configure wholesale product
-Storefront:
-1. Access to product detail page by URL
-2. Check UI (All language)
-3. Check all product information:
-    - Product name
-    - Description
-    - Sold out mark (if variation stock quantity = 0) ...</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_ENG_G3_03</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_ENG_G3_04</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_ENG_G3_05</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_ENG_G3_06</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_ENG_G4_01</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_ENG_G4_02</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_ENG_G4_03</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_ENG_G4_04</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_ENG_G4_05</t>
-  </si>
-  <si>
-    <t>CR_PRODUCT_ENG_G4_06</t>
   </si>
   <si>
     <t>Post IMEI - without variation and check product detail page on storefront</t>
@@ -461,12 +160,166 @@
   <si>
     <t>PASS</t>
   </si>
+  <si>
+    <t>CR_PRODUCT_G1_01</t>
+  </si>
+  <si>
+    <t>CR_PRODUCT_G1_02</t>
+  </si>
+  <si>
+    <t>CR_PRODUCT_G1_03</t>
+  </si>
+  <si>
+    <t>CR_PRODUCT_G1_04</t>
+  </si>
+  <si>
+    <t>CR_PRODUCT_G2_01</t>
+  </si>
+  <si>
+    <t>CR_PRODUCT_G2_02</t>
+  </si>
+  <si>
+    <t>CR_PRODUCT_G2_03</t>
+  </si>
+  <si>
+    <t>CR_PRODUCT_G2_04</t>
+  </si>
+  <si>
+    <t>CR_PRODUCT_G3_01</t>
+  </si>
+  <si>
+    <t>CR_PRODUCT_G3_02</t>
+  </si>
+  <si>
+    <t>CR_PRODUCT_G3_03</t>
+  </si>
+  <si>
+    <t>CR_PRODUCT_G3_04</t>
+  </si>
+  <si>
+    <t>CR_PRODUCT_G3_05</t>
+  </si>
+  <si>
+    <t>CR_PRODUCT_G3_06</t>
+  </si>
+  <si>
+    <t>CR_PRODUCT_G4_01</t>
+  </si>
+  <si>
+    <t>CR_PRODUCT_G4_02</t>
+  </si>
+  <si>
+    <t>CR_PRODUCT_G4_03</t>
+  </si>
+  <si>
+    <t>CR_PRODUCT_G4_04</t>
+  </si>
+  <si>
+    <t>CR_PRODUCT_G4_05</t>
+  </si>
+  <si>
+    <t>CR_PRODUCT_G4_06</t>
+  </si>
+  <si>
+    <t>Dashboard:
+1. Access to dashboard
+2. Check UI and create product
+3. Check UI and configure conversion unit
+4. Check UI and configure wholesale product
+Storefront:
+1.Access to product detail page by URL
+2. Check UI (All language)
+3. Check all product information:
+    - Product name
+    - Description
+    - Variation (if any)
+    - Listing, Selling price
+    - Branch name
+    - Buy now, Add to cart...</t>
+  </si>
+  <si>
+    <t>Dashboard:
+1. Access to dashboard
+2. Check UI and create product
+3. Check UI and configure conversion unit
+4. Check UI and configure wholesale product
+Storefront:
+1. Access to product detail page by URL
+2. Check UI (All language)
+3. Check all product information:
+    - Product name
+    - Description
+    - Check sold out mark ...</t>
+  </si>
+  <si>
+    <t>Dashboard:
+1. Access to dashboard
+2. Check UI and create product
+3. Check UI and configure conversion unit
+4. Check UI and configure wholesale product
+Storefront:1. Access to product detail page by URL
+2. Check UI (All language)
+3. Check all product information:
+    - Product name
+    - Description
+    - Variation (if any)
+    - Listing, Selling price
+    - Branch name
+    - Buy now, Add to cart…</t>
+  </si>
+  <si>
+    <t>Dashboard:
+1. Access to dashboard
+2. Check UI and create product
+3. Check UI and configure conversion unit
+4. Check UI and configure wholesale product
+Storefront:
+1. Access to product detail page by URL
+2. Check UI (All language)
+3. Check 404 Page is shown</t>
+  </si>
+  <si>
+    <t>Dashboard:
+1. Access to dashboard
+2. Check UI and create product
+3. Check UI and configure conversion unit
+4. Check UI and configure wholesale product
+Storefront:
+1. Access to product detail page by URL
+2. Check UI (All language)
+3. Check all product information:
+    - Product name
+    - Description
+    - Variation (if any)
+    - Listing, Selling price
+    - Branch name
+    - Buy now, Add to cart...</t>
+  </si>
+  <si>
+    <t>Dashboard:
+1. Access to dashboard
+2. Check UI and create product
+3. Check UI and configure conversion unit
+4. Check UI and configure wholesale product
+Storefront:
+1. Access to product detail page by URL
+2. Check UI (All language)
+3. Check all product information:
+    - Product name
+    - Description
+    - Sold out mark (if variation stock quantity = 0) ...</t>
+  </si>
+  <si>
+    <t>Result VIE</t>
+  </si>
+  <si>
+    <t>Result ENG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -558,13 +411,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -812,910 +662,659 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G1012"/>
+  <dimension ref="A1:G992"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="58.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="47.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="54.109375" collapsed="true"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="58.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="54.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="182.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="182.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="D2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="171" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="182.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="182.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="114" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="182.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="C10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="182.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="114" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="182.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="171" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="C16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="193.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="182.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="159.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="114" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="E21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="182.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="125.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="182.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="182.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="114" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="193.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="159.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="193.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="125.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="182.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="182.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="F21" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="114" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="193.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" ht="159.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="159.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="193.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="159.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="125.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" ht="182.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" ht="182.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" ht="148.19999999999999" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" ht="114" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" t="s">
-        <v>83</v>
-      </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" ht="193.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="159.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="159.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="193.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="159.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="125.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -7385,126 +6984,6 @@
       <c r="D992" s="1"/>
       <c r="E992" s="1"/>
     </row>
-    <row r="993" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B993" s="1"/>
-      <c r="C993" s="1"/>
-      <c r="D993" s="1"/>
-      <c r="E993" s="1"/>
-    </row>
-    <row r="994" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B994" s="1"/>
-      <c r="C994" s="1"/>
-      <c r="D994" s="1"/>
-      <c r="E994" s="1"/>
-    </row>
-    <row r="995" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B995" s="1"/>
-      <c r="C995" s="1"/>
-      <c r="D995" s="1"/>
-      <c r="E995" s="1"/>
-    </row>
-    <row r="996" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B996" s="1"/>
-      <c r="C996" s="1"/>
-      <c r="D996" s="1"/>
-      <c r="E996" s="1"/>
-    </row>
-    <row r="997" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B997" s="1"/>
-      <c r="C997" s="1"/>
-      <c r="D997" s="1"/>
-      <c r="E997" s="1"/>
-    </row>
-    <row r="998" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B998" s="1"/>
-      <c r="C998" s="1"/>
-      <c r="D998" s="1"/>
-      <c r="E998" s="1"/>
-    </row>
-    <row r="999" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B999" s="1"/>
-      <c r="C999" s="1"/>
-      <c r="D999" s="1"/>
-      <c r="E999" s="1"/>
-    </row>
-    <row r="1000" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="1"/>
-      <c r="E1000" s="1"/>
-    </row>
-    <row r="1001" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1001" s="1"/>
-      <c r="C1001" s="1"/>
-      <c r="D1001" s="1"/>
-      <c r="E1001" s="1"/>
-    </row>
-    <row r="1002" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1002" s="1"/>
-      <c r="C1002" s="1"/>
-      <c r="D1002" s="1"/>
-      <c r="E1002" s="1"/>
-    </row>
-    <row r="1003" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1003" s="1"/>
-      <c r="C1003" s="1"/>
-      <c r="D1003" s="1"/>
-      <c r="E1003" s="1"/>
-    </row>
-    <row r="1004" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1004" s="1"/>
-      <c r="C1004" s="1"/>
-      <c r="D1004" s="1"/>
-      <c r="E1004" s="1"/>
-    </row>
-    <row r="1005" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1005" s="1"/>
-      <c r="C1005" s="1"/>
-      <c r="D1005" s="1"/>
-      <c r="E1005" s="1"/>
-    </row>
-    <row r="1006" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1006" s="1"/>
-      <c r="C1006" s="1"/>
-      <c r="D1006" s="1"/>
-      <c r="E1006" s="1"/>
-    </row>
-    <row r="1007" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1007" s="1"/>
-      <c r="C1007" s="1"/>
-      <c r="D1007" s="1"/>
-      <c r="E1007" s="1"/>
-    </row>
-    <row r="1008" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1008" s="1"/>
-      <c r="C1008" s="1"/>
-      <c r="D1008" s="1"/>
-      <c r="E1008" s="1"/>
-    </row>
-    <row r="1009" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1009" s="1"/>
-      <c r="C1009" s="1"/>
-      <c r="D1009" s="1"/>
-      <c r="E1009" s="1"/>
-    </row>
-    <row r="1010" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1010" s="1"/>
-      <c r="C1010" s="1"/>
-      <c r="D1010" s="1"/>
-      <c r="E1010" s="1"/>
-    </row>
-    <row r="1011" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1011" s="1"/>
-      <c r="C1011" s="1"/>
-      <c r="D1011" s="1"/>
-      <c r="E1011" s="1"/>
-    </row>
-    <row r="1012" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1012" s="1"/>
-      <c r="C1012" s="1"/>
-      <c r="D1012" s="1"/>
-      <c r="E1012" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="11" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/excels/check_product_detail_sf/Create product.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/Create product.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\GoSELL-Automation\src\main\resources\excels\check_product_detail_sf\"/>
     </mc:Choice>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="60">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -320,6 +320,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -668,11 +669,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="58.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="54.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="58.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="47.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="54.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -715,7 +716,7 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
         <v>30</v>
@@ -738,7 +739,7 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
         <v>30</v>
@@ -761,7 +762,7 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -899,7 +900,7 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
         <v>30</v>
@@ -945,7 +946,7 @@
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
         <v>31</v>
@@ -968,7 +969,7 @@
         <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
         <v>31</v>
@@ -991,7 +992,7 @@
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
         <v>30</v>
@@ -1060,7 +1061,7 @@
         <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>30</v>
@@ -1083,7 +1084,7 @@
         <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
         <v>30</v>
@@ -1106,7 +1107,7 @@
         <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
         <v>30</v>
@@ -1129,7 +1130,7 @@
         <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
         <v>30</v>
@@ -1152,7 +1153,7 @@
         <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
         <v>30</v>

--- a/src/main/resources/excels/check_product_detail_sf/Create product.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/Create product.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="60">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -715,10 +715,10 @@
       <c r="E2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>30</v>
       </c>
     </row>
@@ -738,10 +738,10 @@
       <c r="E3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>30</v>
       </c>
     </row>
@@ -761,10 +761,10 @@
       <c r="E4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>30</v>
       </c>
     </row>
@@ -784,10 +784,10 @@
       <c r="E5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>31</v>
       </c>
     </row>
@@ -807,10 +807,10 @@
       <c r="E6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>31</v>
       </c>
     </row>
@@ -830,10 +830,10 @@
       <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>31</v>
       </c>
     </row>
@@ -853,10 +853,10 @@
       <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>31</v>
       </c>
     </row>
@@ -876,10 +876,10 @@
       <c r="E9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>31</v>
       </c>
     </row>
@@ -899,10 +899,10 @@
       <c r="E10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>30</v>
       </c>
     </row>
@@ -922,10 +922,10 @@
       <c r="E11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>31</v>
       </c>
     </row>
@@ -945,10 +945,10 @@
       <c r="E12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s" s="0">
         <v>31</v>
       </c>
     </row>
@@ -968,10 +968,10 @@
       <c r="E13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>31</v>
       </c>
     </row>
@@ -991,10 +991,10 @@
       <c r="E14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>30</v>
       </c>
     </row>
@@ -1014,10 +1014,10 @@
       <c r="E15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>31</v>
       </c>
     </row>
@@ -1037,10 +1037,10 @@
       <c r="E16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>31</v>
       </c>
     </row>
@@ -1060,10 +1060,10 @@
       <c r="E17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>30</v>
       </c>
     </row>
@@ -1083,10 +1083,10 @@
       <c r="E18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>30</v>
       </c>
     </row>
@@ -1106,10 +1106,10 @@
       <c r="E19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>30</v>
       </c>
     </row>
@@ -1129,10 +1129,10 @@
       <c r="E20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>30</v>
       </c>
     </row>
@@ -1152,10 +1152,10 @@
       <c r="E21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>30</v>
       </c>
     </row>

--- a/src/main/resources/excels/check_product_detail_sf/Create product.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/Create product.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="60">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -969,7 +969,7 @@
         <v>26</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s" s="0">
         <v>31</v>
@@ -1015,7 +1015,7 @@
         <v>26</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s" s="0">
         <v>31</v>
@@ -1038,7 +1038,7 @@
         <v>26</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s" s="0">
         <v>31</v>
@@ -1061,7 +1061,7 @@
         <v>26</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s" s="0">
         <v>30</v>
@@ -1084,7 +1084,7 @@
         <v>26</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s" s="0">
         <v>30</v>
@@ -1107,7 +1107,7 @@
         <v>26</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s" s="0">
         <v>30</v>
@@ -1130,7 +1130,7 @@
         <v>26</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s" s="0">
         <v>30</v>
@@ -1153,7 +1153,7 @@
         <v>26</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s" s="0">
         <v>30</v>
